--- a/ReportApi/bin/Debug/net4.8.1/BillMaster1.xlsx
+++ b/ReportApi/bin/Debug/net4.8.1/BillMaster1.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PVV\ReportApi\ReportApi\bin\Debug\net4.8.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sysadmin\Documents\ReportApi\ReportApi\bin\Debug\net4.8.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479DF5DA-DD1C-4B43-997F-FC2C29819D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D82C5C-F048-4C50-9F7A-CA0EF9A8255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$31</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>เรื่อง</t>
   </si>
@@ -88,19 +87,7 @@
     <t>จึงเรียนมาเพื่อโปรดชำระเงินภายในวันกำหนดต่อไปด้วย จะขอบคุณยิ่ง</t>
   </si>
   <si>
-    <t>ได้รับหนังสือแจ้งค่าไฟฟ้าเมื่อวันที่.........................................................</t>
-  </si>
-  <si>
-    <t>(ลงชื่อ)..................................................................ผู้ใช้ไฟฟ้าหรือตัวแทน</t>
-  </si>
-  <si>
-    <t>(.........................................................................)</t>
-  </si>
-  <si>
     <t>ขอแสดงความนับถือ</t>
-  </si>
-  <si>
-    <t>ลงชื่อ..........................................................</t>
   </si>
   <si>
     <t>(..................................................................)</t>
@@ -156,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +156,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -326,7 +321,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -334,63 +329,61 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +414,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>993860</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152968</xdr:rowOff>
+      <xdr:rowOff>141762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -740,10 +733,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:I31"/>
+  <dimension ref="A3:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:H29"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,23 +753,31 @@
     <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G5" s="15" t="s">
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="14">
         <f ca="1">NOW()</f>
-        <v>45162.47524861111</v>
+        <v>45162.62916759259</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -788,7 +789,7 @@
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="4"/>
@@ -797,14 +798,16 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="G8" s="11" t="s">
+      <c r="C8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -828,263 +831,191 @@
       <c r="H10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="B11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12">
         <v>250613885</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="12">
         <v>2112</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="12">
         <v>1200</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="13">
         <f ca="1">DATE(YEAR($H$5),MONTH($H$5),1)</f>
         <v>45139</v>
       </c>
-      <c r="I11" s="15"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="24"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="38" t="str">
+      <c r="F19" s="18"/>
+      <c r="G19" s="23" t="str">
+        <f>IF( SUM(G14:G18)=0,"",SUM(G14:G18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="28" t="e">
         <f>BAHTTEXT($G$19)</f>
-        <v>ศูนย์บาทถ้วน</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="6">
         <f ca="1">DATE(YEAR($H$5),MONTH($H$5),20)</f>
         <v>45158</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-    </row>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="2:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C3:H3"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C16:D16"/>
@@ -1094,92 +1025,16 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5D12F6-79F0-4E6E-8DE2-2FF2ED9209E9}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ReportApi/bin/Debug/net4.8.1/BillMaster1.xlsx
+++ b/ReportApi/bin/Debug/net4.8.1/BillMaster1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sysadmin\Documents\ReportApi\ReportApi\bin\Debug\net4.8.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PVV\PvvReportAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D82C5C-F048-4C50-9F7A-CA0EF9A8255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FDA6F5-EBA7-4D70-B290-44F5D4034C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>เรื่อง</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>ลงชื่อ............................................................</t>
+  </si>
+  <si>
+    <t>รวมเงินที่ต้องชำระ</t>
+  </si>
+  <si>
+    <t>หน่วยรวม</t>
   </si>
 </sst>
 </file>
@@ -308,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,7 +334,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,25 +349,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -380,10 +385,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,7 +749,7 @@
   <dimension ref="A3:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="C24" sqref="C24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,30 +767,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <f ca="1">NOW()</f>
-        <v>45162.62916759259</v>
+        <v>45175.452300115743</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -798,16 +811,16 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="27" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="27"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -833,115 +846,134 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>250613885</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>2112</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>1200</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <f ca="1">DATE(YEAR($H$5),MONTH($H$5),1)</f>
-        <v>45139</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="21"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="20" t="str">
+        <f>IF($E14=0,"",$E14*$F$14)</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="17" t="str">
+        <f>IF($E15=0,"",$E15*$F$14)</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="17" t="str">
+        <f>IF(SUM(E14:E15)=0,"",SUM(E14:E15)*$F$17)</f>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="17" t="str">
+        <f>IF($E18=0,"",$E18*$F$17)</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="23" t="str">
+      <c r="C19" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="38" t="str">
+        <f>IF(SUM(E14:E15)=0,"",SUM(E14:E15))</f>
+        <v/>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="39" t="str">
         <f>IF( SUM(G14:G18)=0,"",SUM(G14:G18))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="28" t="e">
-        <f>BAHTTEXT($G$19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="25" t="str">
+        <f>IF($G$19="","", BAHTTEXT($G$19))</f>
+        <v/>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="6">
         <f ca="1">DATE(YEAR($H$5),MONTH($H$5),20)</f>
-        <v>45158</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -962,11 +994,11 @@
       <c r="I24" s="24"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
@@ -975,11 +1007,11 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="2:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
@@ -988,29 +1020,35 @@
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25" t="s">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="G8:H8"/>
@@ -1026,12 +1064,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>

--- a/ReportApi/bin/Debug/net4.8.1/BillMaster1.xlsx
+++ b/ReportApi/bin/Debug/net4.8.1/BillMaster1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PVV\PvvReportAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sysadmin\Documents\ReportApi\ReportApi\bin\Debug\net4.8.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FDA6F5-EBA7-4D70-B290-44F5D4034C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F61D663-4664-4ED2-A452-2E7867A3EF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1530" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t xml:space="preserve">รวมเงินที่ต้องชำระ </t>
   </si>
   <si>
-    <t xml:space="preserve">โปรดชำระภายในวันที่ </t>
-  </si>
-  <si>
     <t>ได้รับหนังสือแจ้งค่าไฟฟ้าเมื่อวันที่...........................................................................</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>หน่วยรวม</t>
+  </si>
+  <si>
+    <t>โปรดชำระภายใน 30(สามสิบ) วันนับตั้งแต่ได้รับใบแจ้งหนี้ค่าพลังงานไฟฟ้า</t>
   </si>
 </sst>
 </file>
@@ -151,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -327,9 +335,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +363,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,9 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -385,18 +392,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,7 +755,7 @@
   <dimension ref="A3:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:I24"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,30 +773,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <f ca="1">NOW()</f>
-        <v>45175.452300115743</v>
+        <v>45274.699968402776</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -811,22 +817,22 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="23" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -846,198 +852,197 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>250613885</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>2112</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>1200</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <f ca="1">DATE(YEAR($H$5),MONTH($H$5),1)</f>
-        <v>45170</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="20" t="str">
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19" t="str">
         <f>IF($E14=0,"",$E14*$F$14)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="17" t="str">
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="16" t="str">
         <f>IF($E15=0,"",$E15*$F$14)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="16"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="17" t="str">
+      <c r="G17" s="16" t="str">
         <f>IF(SUM(E14:E15)=0,"",SUM(E14:E15)*$F$17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="17" t="str">
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="16" t="str">
         <f>IF($E18=0,"",$E18*$F$17)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="36"/>
-      <c r="E19" s="38" t="str">
+      <c r="E19" s="21" t="str">
         <f>IF(SUM(E14:E15)=0,"",SUM(E14:E15))</f>
         <v/>
       </c>
-      <c r="F19" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="39" t="str">
+      <c r="F19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="22" t="str">
         <f>IF( SUM(G14:G18)=0,"",SUM(G14:G18))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="25" t="str">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="27" t="str">
         <f>IF($G$19="","", BAHTTEXT($G$19))</f>
         <v/>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="6">
-        <f ca="1">DATE(YEAR($H$5),MONTH($H$5),20)</f>
-        <v>45189</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="7"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="2:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="2:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1059,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -1064,6 +1068,7 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
